--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E44A42B-54B9-4F0A-958A-50B972BC2635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9070A993-4AEA-42EA-9402-91D3615D09D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>SlNo</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>interview question</t>
+  </si>
+  <si>
+    <t>spring,spring boot</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,18 +736,38 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10">
+        <v>44446</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="2">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44447</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9070A993-4AEA-42EA-9402-91D3615D09D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FCE534-B512-4253-8EF3-1409A7A4469D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>SlNo</t>
   </si>
@@ -569,7 +569,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,11 +770,21 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="2">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10">
+        <v>44448</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FCE534-B512-4253-8EF3-1409A7A4469D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8E6DFE-A14E-43F8-9BF2-62F8B69F74BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>SlNo</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>spring,spring boot</t>
+  </si>
+  <si>
+    <t>spring</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,11 +790,21 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="2">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10">
+        <v>44452</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8E6DFE-A14E-43F8-9BF2-62F8B69F74BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B3CB03-FC5A-4EC8-9A53-6892BEDC9B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>SlNo</t>
   </si>
@@ -572,7 +572,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,11 +807,21 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="2">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10">
+        <v>44453</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B3CB03-FC5A-4EC8-9A53-6892BEDC9B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AC87E9-B383-4582-BCDA-95DE176B1033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>SlNo</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>spring</t>
+  </si>
+  <si>
+    <t>java ,spring</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,11 +827,21 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="2">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10">
+        <v>44454</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AC87E9-B383-4582-BCDA-95DE176B1033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DD4F93-BE84-4EDB-8A16-8962C1122E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>SlNo</t>
   </si>
@@ -575,7 +575,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,11 +844,21 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="2">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10">
+        <v>44455</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DD4F93-BE84-4EDB-8A16-8962C1122E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B29524-0D7C-4E4F-8212-CE75848AC5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>SlNo</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>java ,spring</t>
+  </si>
+  <si>
+    <t>camunda,java</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,11 +864,21 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="B19" s="2">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10">
+        <v>44456</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B29524-0D7C-4E4F-8212-CE75848AC5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E2CEC9-4E09-4718-B55E-9DF9AC4EC2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>SlNo</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>camunda,java</t>
+  </si>
+  <si>
+    <t>Flowable training</t>
+  </si>
+  <si>
+    <t>Flowable concepts,installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creating workflow process</t>
   </si>
 </sst>
 </file>
@@ -577,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,18 +890,38 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="2">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10">
+        <v>44459</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="B21" s="2">
+        <v>16</v>
+      </c>
+      <c r="C21" s="10">
+        <v>44460</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E2CEC9-4E09-4718-B55E-9DF9AC4EC2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E1FB6D-8107-4C7B-B04A-84E81B325C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>SlNo</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Creating workflow process</t>
+  </si>
+  <si>
+    <t>flowable training and workflow</t>
+  </si>
+  <si>
+    <t>task Description,sub process,call activity and creating new workflow</t>
   </si>
 </sst>
 </file>
@@ -587,15 +593,14 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="51.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.77734375" customWidth="1"/>
+    <col min="5" max="6" width="55.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -924,11 +929,21 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="B22" s="2">
+        <v>17</v>
+      </c>
+      <c r="C22" s="10">
+        <v>44461</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E1FB6D-8107-4C7B-B04A-84E81B325C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779C6A41-EDD4-4806-9F3E-81FAECD3139E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>SlNo</t>
   </si>
@@ -90,6 +90,24 @@
   </si>
   <si>
     <t>task Description,sub process,call activity and creating new workflow</t>
+  </si>
+  <si>
+    <t>flowable training</t>
+  </si>
+  <si>
+    <t>Event,Gateway</t>
+  </si>
+  <si>
+    <t>Team Disscusion</t>
+  </si>
+  <si>
+    <t>BPM Basics,Notations,Use-case scenarios Into Business processes</t>
+  </si>
+  <si>
+    <t>flowable</t>
+  </si>
+  <si>
+    <t>workflow</t>
   </si>
 </sst>
 </file>
@@ -593,7 +611,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,25 +964,47 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="2">
+        <v>18</v>
+      </c>
+      <c r="C23" s="10">
+        <v>44462</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779C6A41-EDD4-4806-9F3E-81FAECD3139E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2D1C27-9EB2-42D3-8E10-076D9F6CA525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>SlNo</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>workflow</t>
+  </si>
+  <si>
+    <t>flowable Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flowable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowable </t>
+  </si>
+  <si>
+    <t>workflow,flowable concepts</t>
   </si>
 </sst>
 </file>
@@ -610,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,18 +1019,34 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="B26" s="2">
+        <v>19</v>
+      </c>
+      <c r="C26" s="10">
+        <v>44463</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="D27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2D1C27-9EB2-42D3-8E10-076D9F6CA525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9310675-BDA2-4454-AC72-A522AEFCFF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>SlNo</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>workflow,flowable concepts</t>
+  </si>
+  <si>
+    <t>CMMN</t>
+  </si>
+  <si>
+    <t>revision</t>
+  </si>
+  <si>
+    <t>flowable concepts</t>
   </si>
 </sst>
 </file>
@@ -622,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,25 +1058,47 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="B28" s="2">
+        <v>20</v>
+      </c>
+      <c r="C28" s="10">
+        <v>44464</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9310675-BDA2-4454-AC72-A522AEFCFF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB90D29-3D0D-4EAC-8B51-88675A4F1318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>SlNo</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>flowable concepts</t>
+  </si>
+  <si>
+    <t>flowable notations</t>
+  </si>
+  <si>
+    <t>camunda workflow</t>
+  </si>
+  <si>
+    <t>jnterview questions</t>
   </si>
 </sst>
 </file>
@@ -631,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1062,7 +1071,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="10">
-        <v>44464</v>
+        <v>44466</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>29</v>
@@ -1101,25 +1110,47 @@
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="B31" s="2">
+        <v>21</v>
+      </c>
+      <c r="C31" s="10">
+        <v>44467</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+      <c r="D33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_september_2021 - Copy - Copy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB90D29-3D0D-4EAC-8B51-88675A4F1318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61BF65D-EC0F-4AD8-8D65-8691D895B08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>SlNo</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>jnterview questions</t>
+  </si>
+  <si>
+    <t>flowable team discussion</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>usecase</t>
   </si>
 </sst>
 </file>
@@ -640,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1153,25 +1162,51 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+      <c r="B34" s="2">
+        <v>22</v>
+      </c>
+      <c r="C34" s="10">
+        <v>44468</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
+      <c r="B35" s="2">
+        <v>23</v>
+      </c>
+      <c r="C35" s="10">
+        <v>44469</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
+      <c r="D36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
